--- a/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH Wards.xlsx
+++ b/IS447/System/Data/Pharmacy Dept/GEH TTO Data/GEH Wards.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherminliam/Documents/School Work/IS447/IS447---Smart-Healthcare/IS447/System/Data/Pharmacy Dept/GEH TTO Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0271B-4F4A-0B46-8178-BDCD5730CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6435"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Room No" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="39">
   <si>
     <t>Room</t>
   </si>
@@ -136,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,19 +954,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B317"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -964,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -972,7 +990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -980,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -988,7 +1006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1004,7 +1022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1012,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1028,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1044,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1052,7 +1070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1060,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1068,7 +1086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1076,7 +1094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1084,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1092,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1116,7 +1134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1124,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>101</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>102</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>103</v>
       </c>
@@ -1148,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>109</v>
       </c>
@@ -1156,7 +1174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>110</v>
       </c>
@@ -1164,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>111</v>
       </c>
@@ -1172,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>112</v>
       </c>
@@ -1180,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>113</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>115</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>116</v>
       </c>
@@ -1204,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>118</v>
       </c>
@@ -1212,7 +1230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>119</v>
       </c>
@@ -1220,7 +1238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>120</v>
       </c>
@@ -1228,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>121</v>
       </c>
@@ -1236,7 +1254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>122</v>
       </c>
@@ -1244,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>123</v>
       </c>
@@ -1252,7 +1270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>126</v>
       </c>
@@ -1260,7 +1278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>125</v>
       </c>
@@ -1268,7 +1286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>128</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>226</v>
       </c>
@@ -1284,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>228</v>
       </c>
@@ -1292,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>501</v>
       </c>
@@ -1300,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>502</v>
       </c>
@@ -1308,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>503</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>504</v>
       </c>
@@ -1324,7 +1342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>505</v>
       </c>
@@ -1332,7 +1350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>506</v>
       </c>
@@ -1340,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>507</v>
       </c>
@@ -1348,7 +1366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>508</v>
       </c>
@@ -1356,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>509</v>
       </c>
@@ -1364,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>510</v>
       </c>
@@ -1372,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>511</v>
       </c>
@@ -1380,7 +1398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>512</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>601</v>
       </c>
@@ -1396,7 +1414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>602</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>603</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>604</v>
       </c>
@@ -1420,7 +1438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>605</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>606</v>
       </c>
@@ -1436,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>607</v>
       </c>
@@ -1444,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>608</v>
       </c>
@@ -1452,7 +1470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>609</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>610</v>
       </c>
@@ -1468,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>611</v>
       </c>
@@ -1476,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>612</v>
       </c>
@@ -1484,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>615</v>
       </c>
@@ -1492,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>616</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>617</v>
       </c>
@@ -1508,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>618</v>
       </c>
@@ -1516,7 +1534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>619</v>
       </c>
@@ -1524,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>620</v>
       </c>
@@ -1532,7 +1550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>621</v>
       </c>
@@ -1540,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>622</v>
       </c>
@@ -1548,7 +1566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>623</v>
       </c>
@@ -1556,7 +1574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>633</v>
       </c>
@@ -1564,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>634</v>
       </c>
@@ -1572,7 +1590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>635</v>
       </c>
@@ -1580,7 +1598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>636</v>
       </c>
@@ -1588,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>637</v>
       </c>
@@ -1596,7 +1614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>638</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>639</v>
       </c>
@@ -1612,7 +1630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>640</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>641</v>
       </c>
@@ -1628,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>642</v>
       </c>
@@ -1636,7 +1654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>645</v>
       </c>
@@ -1644,7 +1662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>646</v>
       </c>
@@ -1652,7 +1670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>647</v>
       </c>
@@ -1660,7 +1678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>648</v>
       </c>
@@ -1668,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>649</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>650</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>651</v>
       </c>
@@ -1692,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>652</v>
       </c>
@@ -1700,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>653</v>
       </c>
@@ -1708,7 +1726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>654</v>
       </c>
@@ -1716,7 +1734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>655</v>
       </c>
@@ -1724,7 +1742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>656</v>
       </c>
@@ -1732,7 +1750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>701</v>
       </c>
@@ -1740,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>702</v>
       </c>
@@ -1748,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>703</v>
       </c>
@@ -1756,7 +1774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>704</v>
       </c>
@@ -1764,7 +1782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>705</v>
       </c>
@@ -1772,7 +1790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>706</v>
       </c>
@@ -1780,7 +1798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>707</v>
       </c>
@@ -1788,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>708</v>
       </c>
@@ -1796,7 +1814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>709</v>
       </c>
@@ -1804,7 +1822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>710</v>
       </c>
@@ -1812,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>711</v>
       </c>
@@ -1820,7 +1838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>712</v>
       </c>
@@ -1828,7 +1846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>713</v>
       </c>
@@ -1836,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>714</v>
       </c>
@@ -1844,7 +1862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>715</v>
       </c>
@@ -1852,7 +1870,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>716</v>
       </c>
@@ -1860,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>717</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>718</v>
       </c>
@@ -1876,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>719</v>
       </c>
@@ -1884,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>720</v>
       </c>
@@ -1892,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>721</v>
       </c>
@@ -1900,7 +1918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>722</v>
       </c>
@@ -1908,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>723</v>
       </c>
@@ -1916,7 +1934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>724</v>
       </c>
@@ -1924,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>725</v>
       </c>
@@ -1932,7 +1950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>726</v>
       </c>
@@ -1940,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>727</v>
       </c>
@@ -1948,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>728</v>
       </c>
@@ -1956,7 +1974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>733</v>
       </c>
@@ -1964,7 +1982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>734</v>
       </c>
@@ -1972,7 +1990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>735</v>
       </c>
@@ -1980,7 +1998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>736</v>
       </c>
@@ -1988,1471 +2006,1471 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B131" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B132" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B133" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B135" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B136" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B137" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B138" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B139" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B140" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B141" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B142" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B143" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B144" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B145" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B146" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B148" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B149" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B151" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B152" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B153" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B154" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B155" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B156" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B157" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
+        <v>764</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
         <v>780</v>
       </c>
-      <c r="B158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
         <v>781</v>
       </c>
-      <c r="B159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
         <v>782</v>
       </c>
-      <c r="B160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
         <v>783</v>
       </c>
-      <c r="B161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
         <v>784</v>
       </c>
-      <c r="B162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
         <v>785</v>
       </c>
-      <c r="B163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
         <v>786</v>
       </c>
-      <c r="B164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
         <v>787</v>
       </c>
-      <c r="B165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
         <v>788</v>
       </c>
-      <c r="B166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
         <v>789</v>
       </c>
-      <c r="B167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
         <v>790</v>
       </c>
-      <c r="B168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
         <v>791</v>
       </c>
-      <c r="B169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
         <v>792</v>
       </c>
-      <c r="B170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
         <v>793</v>
       </c>
-      <c r="B171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
         <v>794</v>
       </c>
-      <c r="B172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
         <v>795</v>
       </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
         <v>801</v>
-      </c>
-      <c r="B174" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>802</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B177" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B183" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B186" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B192" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B194" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B196" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B198" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B199" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B200" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B202" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B203" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B204" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B205" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
+        <v>832</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
         <v>833</v>
-      </c>
-      <c r="B206" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>834</v>
       </c>
       <c r="B207" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B208" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B210" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B211" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B212" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B213" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B215" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B216" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B217" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B218" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B219" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B220" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B221" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B222" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B223" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B224" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B225" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B226" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B228" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B229" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B231" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B232" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B233" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B234" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B235" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B236" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B237" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
+        <v>864</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
         <v>901</v>
-      </c>
-      <c r="B238" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>902</v>
       </c>
       <c r="B239" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B240" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B241" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B242" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B243" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B244" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B245" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B246" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B247" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B248" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B249" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B250" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B251" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B252" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B253" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B254" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B255" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B256" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B257" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B258" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B259" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B260" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B261" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B262" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B263" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B264" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B265" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B266" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B267" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
+        <v>932</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
         <v>933</v>
-      </c>
-      <c r="B268" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>934</v>
       </c>
       <c r="B269" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B271" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B272" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B273" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B274" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B275" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B276" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B277" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="B278" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B279" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B280" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B281" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B282" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B283" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B284" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B285" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B286" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B287" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B288" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B289" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B290" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B291" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B292" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B293" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B294" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>963</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>14</v>
       </c>
-      <c r="B295" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
         <v>15</v>
-      </c>
-      <c r="B296" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>17</v>
       </c>
       <c r="B297" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B298" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B299" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B300" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B301" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B302" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B303" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B304" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B305" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B306" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B307" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
+        <v>27</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
         <v>28</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B309" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
         <v>30</v>
-      </c>
-      <c r="B309" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>32</v>
       </c>
       <c r="B310" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B311" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B312" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B313" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>35</v>
       </c>
@@ -3460,27 +3478,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B315" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B316" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
+        <v>37</v>
+      </c>
+      <c r="B317" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
         <v>38</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B318" t="s">
         <v>31</v>
       </c>
     </row>
